--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H2">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I2">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J2">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,27 +567,27 @@
         <v>0.289704</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q2">
-        <v>4.389074071924</v>
+        <v>7.556866360504001</v>
       </c>
       <c r="R2">
-        <v>26.334444431544</v>
+        <v>45.34119816302401</v>
       </c>
       <c r="S2">
-        <v>0.1092442560256595</v>
+        <v>0.06378934793850224</v>
       </c>
       <c r="T2">
-        <v>0.08146511437786728</v>
+        <v>0.06082303011730185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.25908033333333</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H3">
-        <v>240.777241</v>
+        <v>156.508706</v>
       </c>
       <c r="I3">
-        <v>0.1929092786303725</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J3">
-        <v>0.2157831041178573</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.096568</v>
+        <v>0.175941</v>
       </c>
       <c r="N3">
-        <v>0.289704</v>
+        <v>0.351882</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6456337221889918</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5484564812823222</v>
       </c>
       <c r="Q3">
-        <v>7.750458869629333</v>
+        <v>13.768149121173</v>
       </c>
       <c r="R3">
-        <v>69.754129826664</v>
+        <v>55.072596484692</v>
       </c>
       <c r="S3">
-        <v>0.1929092786303725</v>
+        <v>0.1162202972583881</v>
       </c>
       <c r="T3">
-        <v>0.2157831041178573</v>
+        <v>0.07387723153196506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.109515</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H4">
-        <v>246.328545</v>
+        <v>240.777241</v>
       </c>
       <c r="I4">
-        <v>0.1973569500367323</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J4">
-        <v>0.2207581491181523</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,27 +691,27 @@
         <v>0.289704</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q4">
-        <v>7.92915164452</v>
+        <v>7.750458869629333</v>
       </c>
       <c r="R4">
-        <v>71.36236480068001</v>
+        <v>69.754129826664</v>
       </c>
       <c r="S4">
-        <v>0.1973569500367323</v>
+        <v>0.06542350941943385</v>
       </c>
       <c r="T4">
-        <v>0.2207581491181523</v>
+        <v>0.09357180028632939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.856657</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H5">
-        <v>173.713314</v>
+        <v>240.777241</v>
       </c>
       <c r="I5">
-        <v>0.2087670949695245</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J5">
-        <v>0.1556808191913788</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.096568</v>
+        <v>0.175941</v>
       </c>
       <c r="N5">
-        <v>0.289704</v>
+        <v>0.351882</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6456337221889918</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5484564812823222</v>
       </c>
       <c r="Q5">
-        <v>8.387573653176</v>
+        <v>14.120862852927</v>
       </c>
       <c r="R5">
-        <v>50.325441919056</v>
+        <v>84.725177117562</v>
       </c>
       <c r="S5">
-        <v>0.2087670949695245</v>
+        <v>0.1191976397022265</v>
       </c>
       <c r="T5">
-        <v>0.1556808191913788</v>
+        <v>0.1136547380372869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.48344933333334</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H6">
-        <v>130.450348</v>
+        <v>221.777512</v>
       </c>
       <c r="I6">
-        <v>0.1045160349260795</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J6">
-        <v>0.1169088112638301</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.289704</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3543662778110081</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4515435187176778</v>
       </c>
       <c r="Q6">
-        <v>4.199109735221334</v>
+        <v>7.138870259605334</v>
       </c>
       <c r="R6">
-        <v>37.79198761699201</v>
+        <v>64.24983233644801</v>
       </c>
       <c r="S6">
-        <v>0.1045160349260795</v>
+        <v>0.06026094113002403</v>
       </c>
       <c r="T6">
-        <v>0.1169088112638301</v>
+        <v>0.08618805072553772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.88641600000001</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H7">
-        <v>233.659248</v>
+        <v>221.777512</v>
       </c>
       <c r="I7">
-        <v>0.1872063854116316</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J7">
-        <v>0.2094040019309144</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.175941</v>
+      </c>
+      <c r="N7">
+        <v>0.351882</v>
+      </c>
+      <c r="O7">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P7">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q7">
+        <v>13.006585746264</v>
+      </c>
+      <c r="R7">
+        <v>78.03951447758399</v>
+      </c>
+      <c r="S7">
+        <v>0.1097917554817078</v>
+      </c>
+      <c r="T7">
+        <v>0.1046862441160759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>64.0114765</v>
+      </c>
+      <c r="H8">
+        <v>128.022953</v>
+      </c>
+      <c r="I8">
+        <v>0.1472465458029419</v>
+      </c>
+      <c r="J8">
+        <v>0.1101838083448968</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>0.096568</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>0.289704</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>7.521335420288001</v>
-      </c>
-      <c r="R7">
-        <v>67.69201878259202</v>
-      </c>
-      <c r="S7">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="T7">
-        <v>0.2094040019309144</v>
+      <c r="O8">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P8">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q8">
+        <v>6.181460262652</v>
+      </c>
+      <c r="R8">
+        <v>37.088761575912</v>
+      </c>
+      <c r="S8">
+        <v>0.05217921035671665</v>
+      </c>
+      <c r="T8">
+        <v>0.04975278452576892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.0114765</v>
+      </c>
+      <c r="H9">
+        <v>128.022953</v>
+      </c>
+      <c r="I9">
+        <v>0.1472465458029419</v>
+      </c>
+      <c r="J9">
+        <v>0.1101838083448968</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.175941</v>
+      </c>
+      <c r="N9">
+        <v>0.351882</v>
+      </c>
+      <c r="O9">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P9">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q9">
+        <v>11.2622431868865</v>
+      </c>
+      <c r="R9">
+        <v>45.048972747546</v>
+      </c>
+      <c r="S9">
+        <v>0.09506733544622527</v>
+      </c>
+      <c r="T9">
+        <v>0.06043102381912786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>56.48610166666666</v>
+      </c>
+      <c r="H10">
+        <v>169.458305</v>
+      </c>
+      <c r="I10">
+        <v>0.1299358148111217</v>
+      </c>
+      <c r="J10">
+        <v>0.1458454203955994</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.096568</v>
+      </c>
+      <c r="N10">
+        <v>0.289704</v>
+      </c>
+      <c r="O10">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P10">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q10">
+        <v>5.454749865746666</v>
+      </c>
+      <c r="R10">
+        <v>49.09274879172</v>
+      </c>
+      <c r="S10">
+        <v>0.04604487104895764</v>
+      </c>
+      <c r="T10">
+        <v>0.06585555431428791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>56.48610166666666</v>
+      </c>
+      <c r="H11">
+        <v>169.458305</v>
+      </c>
+      <c r="I11">
+        <v>0.1299358148111217</v>
+      </c>
+      <c r="J11">
+        <v>0.1458454203955994</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.175941</v>
+      </c>
+      <c r="N11">
+        <v>0.351882</v>
+      </c>
+      <c r="O11">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P11">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q11">
+        <v>9.938221213334998</v>
+      </c>
+      <c r="R11">
+        <v>59.62932728001</v>
+      </c>
+      <c r="S11">
+        <v>0.08389094376216401</v>
+      </c>
+      <c r="T11">
+        <v>0.07998986608131146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>81.78626233333334</v>
+      </c>
+      <c r="H12">
+        <v>245.358787</v>
+      </c>
+      <c r="I12">
+        <v>0.1881341484556537</v>
+      </c>
+      <c r="J12">
+        <v>0.2111696764450071</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.096568</v>
+      </c>
+      <c r="N12">
+        <v>0.289704</v>
+      </c>
+      <c r="O12">
+        <v>0.3543662778110081</v>
+      </c>
+      <c r="P12">
+        <v>0.4515435187176778</v>
+      </c>
+      <c r="Q12">
+        <v>7.897935781005334</v>
+      </c>
+      <c r="R12">
+        <v>71.081422029048</v>
+      </c>
+      <c r="S12">
+        <v>0.06666839791737364</v>
+      </c>
+      <c r="T12">
+        <v>0.09535229874845204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>81.78626233333334</v>
+      </c>
+      <c r="H13">
+        <v>245.358787</v>
+      </c>
+      <c r="I13">
+        <v>0.1881341484556537</v>
+      </c>
+      <c r="J13">
+        <v>0.2111696764450071</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.175941</v>
+      </c>
+      <c r="N13">
+        <v>0.351882</v>
+      </c>
+      <c r="O13">
+        <v>0.6456337221889918</v>
+      </c>
+      <c r="P13">
+        <v>0.5484564812823222</v>
+      </c>
+      <c r="Q13">
+        <v>14.389556781189</v>
+      </c>
+      <c r="R13">
+        <v>86.337340687134</v>
+      </c>
+      <c r="S13">
+        <v>0.1214657505382801</v>
+      </c>
+      <c r="T13">
+        <v>0.1158173776965551</v>
       </c>
     </row>
   </sheetData>
